--- a/src/test/resources/Plan de Pruebas/Plan de Pruebas - OpenCart - Miguel Casado.xlsx
+++ b/src/test/resources/Plan de Pruebas/Plan de Pruebas - OpenCart - Miguel Casado.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenCartMiguelCasado\src\test\resources\Plan de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78AD5D8-FA39-44D3-A56A-3FCD4CBBEAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04FD402-C28E-45AF-9FE2-5FA6198EF7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="8" r:id="rId1"/>
     <sheet name="Registro" sheetId="9" r:id="rId2"/>
     <sheet name="Carrito" sheetId="10" r:id="rId3"/>
     <sheet name="Checkout" sheetId="11" r:id="rId4"/>
+    <sheet name="Logout" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="131">
   <si>
     <t>Orden</t>
   </si>
@@ -569,6 +570,18 @@
   </si>
   <si>
     <t>13- Pulsar el botón de "Confirm Order" en "Step 4: Confirm Order"</t>
+  </si>
+  <si>
+    <t>Un usuario puede hacer logout</t>
+  </si>
+  <si>
+    <t>5- Pulsar el botón de "Account"</t>
+  </si>
+  <si>
+    <t>6- Pulsar el botón de "Logout"</t>
+  </si>
+  <si>
+    <t>Se redirige al usuario a https://opencart.abstracta.us/index.php?route=account/logout</t>
   </si>
 </sst>
 </file>
@@ -780,6 +793,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,15 +809,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF0955B-DD2A-4EFF-A684-E49BA89FBB45}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,359 +1309,383 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="18">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>5</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="18">
         <v>6</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <v>7</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="18">
         <v>8</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="D26:D29"/>
@@ -1657,30 +1694,6 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="E30:E33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1810,102 +1823,102 @@
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
@@ -3155,6 +3168,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="D93:D101"/>
+    <mergeCell ref="E93:E101"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="B102:B110"/>
+    <mergeCell ref="D102:D110"/>
+    <mergeCell ref="E102:E110"/>
     <mergeCell ref="A111:A119"/>
     <mergeCell ref="B111:B119"/>
     <mergeCell ref="D111:D119"/>
@@ -3171,54 +3232,6 @@
     <mergeCell ref="B129:B137"/>
     <mergeCell ref="D129:D137"/>
     <mergeCell ref="E129:E137"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="D93:D101"/>
-    <mergeCell ref="E93:E101"/>
-    <mergeCell ref="A102:A110"/>
-    <mergeCell ref="B102:B110"/>
-    <mergeCell ref="D102:D110"/>
-    <mergeCell ref="E102:E110"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="A84:A92"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="E11:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3229,7 +3242,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,10 +3281,10 @@
       <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3281,8 +3294,8 @@
       <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
@@ -3290,8 +3303,8 @@
       <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -3524,192 +3537,192 @@
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
@@ -3918,30 +3931,114 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B176CE70-B28E-4CE1-845A-206487CDBB17}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="44380fd7-8585-4f06-a79d-1e856e767ea7">
-      <UserInfo>
-        <DisplayName>Javier Martinez Molina</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100145623D9E6186A44AD264C70D5562462" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0269702854de7a22c01473c57575ff8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85ab5be2-1c86-4d6a-b428-be610e1b7258" xmlns:ns3="44380fd7-8585-4f06-a79d-1e856e767ea7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6799ea7b1b590b69eb45ff569ae30e64" ns2:_="" ns3:_="">
     <xsd:import namespace="85ab5be2-1c86-4d6a-b428-be610e1b7258"/>
@@ -4158,25 +4255,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6A5624A-B262-4F37-AB14-07C8BE669D88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="44380fd7-8585-4f06-a79d-1e856e767ea7">
+      <UserInfo>
+        <DisplayName>Javier Martinez Molina</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A12E55E0-9414-46EB-93F9-A5BDD7316081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="44380fd7-8585-4f06-a79d-1e856e767ea7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EABA48-FE14-4F89-B29F-9FE8CB53EEA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4193,4 +4295,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A12E55E0-9414-46EB-93F9-A5BDD7316081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="44380fd7-8585-4f06-a79d-1e856e767ea7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6A5624A-B262-4F37-AB14-07C8BE669D88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>